--- a/data/trans_orig/P24D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9A5D99E-1214-4264-A33D-421B32F7CEE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{580E8CAF-4F6A-4A33-AB80-7AF7708BE93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1D7756D1-9C84-494C-ABB9-92709F603FE4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{009CAB01-0855-43C3-B9DA-32EE00FBE743}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>32,84%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>31,46%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
   </si>
   <si>
     <t>32,4%</t>
   </si>
   <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>67,16%</t>
   </si>
   <si>
-    <t>62,3%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
   </si>
   <si>
     <t>68,54%</t>
   </si>
   <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
   </si>
   <si>
     <t>67,6%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>28,48%</t>
   </si>
   <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>35,15%</t>
   </si>
   <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
   </si>
   <si>
     <t>64,85%</t>
   </si>
   <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
   </si>
   <si>
     <t>68,87%</t>
   </si>
   <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,718 +197,724 @@
     <t>34,27%</t>
   </si>
   <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
   </si>
   <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
   </si>
   <si>
     <t>35,91%</t>
   </si>
   <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2015 (Tasa respuesta: 30,25%)</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
     <t>30,97%</t>
   </si>
   <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
   </si>
   <si>
     <t>69,03%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2015 (Tasa respuesta: 30,25%)</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
   </si>
   <si>
     <t>56,75%</t>
@@ -1335,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2B64E1-ECA3-4794-868B-447BDC9A5083}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F617D2-A7DE-4135-B5AB-376BBF06D202}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1486,7 +1492,7 @@
         <v>176</v>
       </c>
       <c r="N4" s="7">
-        <v>178228</v>
+        <v>178229</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1588,7 +1594,7 @@
         <v>537</v>
       </c>
       <c r="N6" s="7">
-        <v>550164</v>
+        <v>550165</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2086,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57CC50A-E760-41DC-8EAA-EAC3AC809E54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664A498F-9BC8-42F5-8D0B-67EE5DAB740E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2837,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB568B92-FDBE-4236-BD9B-37D605B195EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6AC255-4F88-47F2-BC6E-D2FE533B4E27}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3588,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E685D3A-D067-43B4-B704-C05CD6B4C97F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CA8619-0BC2-4B13-865E-D7AC704630AB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4180,10 +4186,10 @@
         <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H13" s="7">
         <v>418</v>
@@ -4192,13 +4198,13 @@
         <v>302489</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>712</v>
@@ -4207,13 +4213,13 @@
         <v>595533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4228,13 +4234,13 @@
         <v>555173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -4243,10 +4249,10 @@
         <v>396966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>100</v>
@@ -4258,13 +4264,13 @@
         <v>952139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{580E8CAF-4F6A-4A33-AB80-7AF7708BE93E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F847F07F-E8DF-4E16-8229-D5787EF01B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{009CAB01-0855-43C3-B9DA-32EE00FBE743}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D4A7D94-9BFF-4853-8801-88E67A3DF439}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>32,84%</t>
   </si>
   <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
   </si>
   <si>
     <t>31,46%</t>
   </si>
   <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
   </si>
   <si>
     <t>32,4%</t>
   </si>
   <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>67,16%</t>
   </si>
   <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
   </si>
   <si>
     <t>68,54%</t>
   </si>
   <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>67,6%</t>
   </si>
   <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>28,48%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
   </si>
   <si>
     <t>35,15%</t>
   </si>
   <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
   </si>
   <si>
     <t>64,85%</t>
   </si>
   <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
   </si>
   <si>
     <t>68,87%</t>
   </si>
   <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,109 +197,109 @@
     <t>34,27%</t>
   </si>
   <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
   </si>
   <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
   </si>
   <si>
     <t>35,91%</t>
   </si>
   <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
   </si>
   <si>
     <t>65,73%</t>
   </si>
   <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
   </si>
   <si>
     <t>61,84%</t>
   </si>
   <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
   </si>
   <si>
     <t>64,09%</t>
   </si>
   <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
   </si>
   <si>
     <t>69,54%</t>
   </si>
   <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,616 +311,634 @@
     <t>45,24%</t>
   </si>
   <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
     <t>39,81%</t>
   </si>
   <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
   </si>
   <si>
     <t>60,19%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2015 (Tasa respuesta: 30,25%)</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
   </si>
   <si>
     <t>61,52%</t>
@@ -1341,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F617D2-A7DE-4135-B5AB-376BBF06D202}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9179867C-B2EA-4AED-8D38-B685CC411292}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2092,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664A498F-9BC8-42F5-8D0B-67EE5DAB740E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0513899-BDBF-48E7-98A1-9125CA6B81C7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2735,10 +2753,10 @@
         <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -2747,13 +2765,13 @@
         <v>473036</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>1129</v>
@@ -2762,13 +2780,13 @@
         <v>1197375</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6AC255-4F88-47F2-BC6E-D2FE533B4E27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680CA565-7F2C-4B28-A5AF-3706653645D6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2860,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2967,13 +2985,13 @@
         <v>93721</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>58</v>
@@ -2982,13 +3000,13 @@
         <v>60762</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>148</v>
@@ -2997,13 +3015,13 @@
         <v>154482</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3036,13 @@
         <v>130689</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>74</v>
@@ -3033,13 +3051,13 @@
         <v>75453</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -3048,7 +3066,7 @@
         <v>206143</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>176</v>
@@ -3283,7 +3301,7 @@
         <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3292,13 +3310,13 @@
         <v>51049</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
@@ -3307,13 +3325,13 @@
         <v>114512</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,13 +3346,13 @@
         <v>72691</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>68</v>
@@ -3343,13 +3361,13 @@
         <v>69403</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>133</v>
@@ -3358,13 +3376,13 @@
         <v>142094</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,13 +3450,13 @@
         <v>500180</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>394</v>
@@ -3447,13 +3465,13 @@
         <v>407982</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>859</v>
@@ -3465,10 +3483,10 @@
         <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,13 +3501,13 @@
         <v>665298</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -3498,13 +3516,13 @@
         <v>509643</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>1114</v>
@@ -3516,10 +3534,10 @@
         <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CA8619-0BC2-4B13-865E-D7AC704630AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66762454-F797-4414-8781-9E5DC68972D0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3611,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3718,13 +3736,13 @@
         <v>49488</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>70</v>
@@ -3733,13 +3751,13 @@
         <v>44333</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>125</v>
@@ -3748,13 +3766,13 @@
         <v>93821</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3787,13 @@
         <v>97631</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>64</v>
@@ -3784,13 +3802,13 @@
         <v>41347</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>171</v>
@@ -3799,13 +3817,13 @@
         <v>138978</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3891,13 @@
         <v>197699</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>283</v>
@@ -3888,13 +3906,13 @@
         <v>214194</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>478</v>
@@ -3903,13 +3921,13 @@
         <v>411894</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3942,13 @@
         <v>399361</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>369</v>
@@ -3939,13 +3957,13 @@
         <v>284580</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>714</v>
@@ -3954,13 +3972,13 @@
         <v>683941</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4046,13 @@
         <v>45858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -4043,13 +4061,13 @@
         <v>43961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -4058,13 +4076,13 @@
         <v>89819</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4097,13 @@
         <v>58180</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>91</v>
@@ -4094,13 +4112,13 @@
         <v>71040</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>151</v>
@@ -4109,13 +4127,13 @@
         <v>129220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4201,13 @@
         <v>293045</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>418</v>
@@ -4198,13 +4216,13 @@
         <v>302489</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>712</v>
@@ -4213,13 +4231,13 @@
         <v>595533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,13 +4252,13 @@
         <v>555173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -4249,13 +4267,13 @@
         <v>396966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>1036</v>
@@ -4264,13 +4282,13 @@
         <v>952139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F847F07F-E8DF-4E16-8229-D5787EF01B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6742F56D-D2BC-443D-8893-465E5995347A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4D4A7D94-9BFF-4853-8801-88E67A3DF439}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD1ECB3D-3FDB-4DC3-9446-714D18578141}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2007 (Tasa respuesta: 33,51%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>32,84%</t>
   </si>
   <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
   </si>
   <si>
     <t>31,46%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
   </si>
   <si>
     <t>32,4%</t>
   </si>
   <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>67,16%</t>
   </si>
   <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
   </si>
   <si>
     <t>68,54%</t>
   </si>
   <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
   </si>
   <si>
     <t>67,6%</t>
   </si>
   <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>28,48%</t>
   </si>
   <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
   </si>
   <si>
     <t>35,15%</t>
   </si>
   <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
   </si>
   <si>
     <t>31,13%</t>
   </si>
   <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
   </si>
   <si>
     <t>64,85%</t>
   </si>
   <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
   </si>
   <si>
     <t>68,87%</t>
   </si>
   <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,79 +197,79 @@
     <t>34,27%</t>
   </si>
   <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
   </si>
   <si>
     <t>38,16%</t>
   </si>
   <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
   </si>
   <si>
     <t>35,91%</t>
   </si>
   <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
   </si>
   <si>
     <t>65,73%</t>
   </si>
   <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
   <si>
     <t>61,84%</t>
   </si>
   <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
   </si>
   <si>
     <t>64,09%</t>
   </si>
   <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
   </si>
   <si>
     <t>30,46%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>30,2%</t>
+    <t>30,15%</t>
   </si>
   <si>
     <t>34,1%</t>
@@ -278,19 +278,19 @@
     <t>69,54%</t>
   </si>
   <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
   </si>
   <si>
     <t>67,85%</t>
@@ -299,7 +299,7 @@
     <t>65,9%</t>
   </si>
   <si>
-    <t>69,8%</t>
+    <t>69,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -311,178 +311,178 @@
     <t>45,24%</t>
   </si>
   <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
   </si>
   <si>
     <t>50,37%</t>
   </si>
   <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
   </si>
   <si>
     <t>54,76%</t>
   </si>
   <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
   </si>
   <si>
     <t>49,63%</t>
   </si>
   <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
   </si>
   <si>
     <t>52,84%</t>
   </si>
   <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
   </si>
   <si>
     <t>46,37%</t>
   </si>
   <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
   </si>
   <si>
     <t>50,65%</t>
   </si>
   <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
   </si>
   <si>
     <t>48,19%</t>
   </si>
   <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
   </si>
   <si>
     <t>53,63%</t>
   </si>
   <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
   </si>
   <si>
     <t>49,35%</t>
   </si>
   <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>51,81%</t>
   </si>
   <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
   <si>
     <t>47,94%</t>
   </si>
   <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
   </si>
   <si>
     <t>54,88%</t>
   </si>
   <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
   </si>
   <si>
     <t>51,13%</t>
   </si>
   <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
   </si>
   <si>
     <t>52,06%</t>
   </si>
   <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
   </si>
   <si>
     <t>45,12%</t>
   </si>
   <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
   <si>
     <t>48,87%</t>
   </si>
   <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
   </si>
   <si>
     <t>46,28%</t>
   </si>
   <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
   </si>
   <si>
     <t>51,19%</t>
   </si>
   <si>
-    <t>47,8%</t>
+    <t>47,64%</t>
   </si>
   <si>
     <t>54,48%</t>
@@ -491,252 +491,243 @@
     <t>48,33%</t>
   </si>
   <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>Población según si ha intentado alguna vez dejar de fumar en 2016 (Tasa respuesta: 30,25%)</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>57,16%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
+    <t>59,8%</t>
   </si>
   <si>
     <t>55,54%</t>
   </si>
   <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
   </si>
   <si>
     <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
   </si>
   <si>
-    <t>33,64%</t>
-  </si>
-  <si>
     <t>26,72%</t>
   </si>
   <si>
@@ -761,9 +752,6 @@
     <t>46,64%</t>
   </si>
   <si>
-    <t>66,36%</t>
-  </si>
-  <si>
     <t>57,34%</t>
   </si>
   <si>
@@ -899,18 +887,12 @@
     <t>34,55%</t>
   </si>
   <si>
-    <t>30,97%</t>
-  </si>
-  <si>
     <t>38,42%</t>
   </si>
   <si>
     <t>43,25%</t>
   </si>
   <si>
-    <t>39,81%</t>
-  </si>
-  <si>
     <t>46,94%</t>
   </si>
   <si>
@@ -929,16 +911,10 @@
     <t>61,58%</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
     <t>56,75%</t>
   </si>
   <si>
     <t>53,06%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
   </si>
   <si>
     <t>61,52%</t>
@@ -1359,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9179867C-B2EA-4AED-8D38-B685CC411292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926E7B67-A95D-40C7-B697-123E20E83B7A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1510,7 +1486,7 @@
         <v>176</v>
       </c>
       <c r="N4" s="7">
-        <v>178229</v>
+        <v>178228</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1612,7 +1588,7 @@
         <v>537</v>
       </c>
       <c r="N6" s="7">
-        <v>550165</v>
+        <v>550164</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2110,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0513899-BDBF-48E7-98A1-9125CA6B81C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A52919-24E4-4D41-A90B-C836CBA8F921}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2753,10 +2729,10 @@
         <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>438</v>
@@ -2765,13 +2741,13 @@
         <v>473036</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>1129</v>
@@ -2780,13 +2756,13 @@
         <v>1197375</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680CA565-7F2C-4B28-A5AF-3706653645D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6473319-AD6E-45F3-A47F-2062EFC9E936}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2961,13 @@
         <v>93721</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>58</v>
@@ -3000,13 +2976,13 @@
         <v>60762</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>148</v>
@@ -3015,13 +2991,13 @@
         <v>154482</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3012,13 @@
         <v>130689</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H5" s="7">
         <v>74</v>
@@ -3051,13 +3027,13 @@
         <v>75453</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M5" s="7">
         <v>200</v>
@@ -3066,7 +3042,7 @@
         <v>206143</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>176</v>
@@ -3301,7 +3277,7 @@
         <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -3310,13 +3286,13 @@
         <v>51049</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
@@ -3325,13 +3301,13 @@
         <v>114512</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3322,13 @@
         <v>72691</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>68</v>
@@ -3361,13 +3337,13 @@
         <v>69403</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>133</v>
@@ -3376,13 +3352,13 @@
         <v>142094</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3426,13 @@
         <v>500180</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>394</v>
@@ -3465,13 +3441,13 @@
         <v>407982</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>859</v>
@@ -3483,10 +3459,10 @@
         <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3477,13 @@
         <v>665298</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -3516,13 +3492,13 @@
         <v>509643</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>1114</v>
@@ -3534,10 +3510,10 @@
         <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66762454-F797-4414-8781-9E5DC68972D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341C5753-9E17-4774-88F5-D39E2C684C7B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3712,13 @@
         <v>49488</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>70</v>
@@ -3751,13 +3727,13 @@
         <v>44333</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>125</v>
@@ -3766,13 +3742,13 @@
         <v>93821</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3763,13 @@
         <v>97631</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>240</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>64</v>
@@ -3802,13 +3778,13 @@
         <v>41347</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>171</v>
@@ -3817,13 +3793,13 @@
         <v>138978</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3867,13 @@
         <v>197699</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H7" s="7">
         <v>283</v>
@@ -3906,13 +3882,13 @@
         <v>214194</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="M7" s="7">
         <v>478</v>
@@ -3921,13 +3897,13 @@
         <v>411894</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3918,13 @@
         <v>399361</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>369</v>
@@ -3957,13 +3933,13 @@
         <v>284580</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>714</v>
@@ -3972,13 +3948,13 @@
         <v>683941</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4022,13 @@
         <v>45858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
@@ -4061,13 +4037,13 @@
         <v>43961</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -4076,13 +4052,13 @@
         <v>89819</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4073,13 @@
         <v>58180</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>91</v>
@@ -4112,13 +4088,13 @@
         <v>71040</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M11" s="7">
         <v>151</v>
@@ -4127,13 +4103,13 @@
         <v>129220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4177,13 @@
         <v>293045</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>58</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>418</v>
@@ -4216,13 +4192,13 @@
         <v>302489</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>712</v>
@@ -4231,13 +4207,13 @@
         <v>595533</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4228,13 @@
         <v>555173</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -4267,13 +4243,13 @@
         <v>396966</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>1036</v>
@@ -4282,13 +4258,13 @@
         <v>952139</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P24D-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24D-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6742F56D-D2BC-443D-8893-465E5995347A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F328F9-5A1A-41CB-B734-DC5B3BC5FC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD1ECB3D-3FDB-4DC3-9446-714D18578141}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{13645FA4-A13B-4EC3-AFE4-D208F9EFF532}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -728,202 +728,202 @@
     <t>Población según si ha intentado alguna vez dejar de fumar en 2023 (Tasa respuesta: 20,03%)</t>
   </si>
   <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>53,06%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926E7B67-A95D-40C7-B697-123E20E83B7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367C4D60-EC80-45FC-9AA9-199F8D3B539F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1486,7 +1486,7 @@
         <v>176</v>
       </c>
       <c r="N4" s="7">
-        <v>178228</v>
+        <v>178229</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1507,7 +1507,7 @@
         <v>242</v>
       </c>
       <c r="D5" s="7">
-        <v>250933</v>
+        <v>250932</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1558,7 +1558,7 @@
         <v>365</v>
       </c>
       <c r="D6" s="7">
-        <v>373624</v>
+        <v>373623</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1588,7 +1588,7 @@
         <v>537</v>
       </c>
       <c r="N6" s="7">
-        <v>550164</v>
+        <v>550165</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2086,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A52919-24E4-4D41-A90B-C836CBA8F921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E14015-BA30-4E2E-91E8-6A98C62EFEAD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2702,7 +2702,7 @@
         <v>1027</v>
       </c>
       <c r="N13" s="7">
-        <v>1120101</v>
+        <v>1120102</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>149</v>
@@ -2804,7 +2804,7 @@
         <v>2156</v>
       </c>
       <c r="N15" s="7">
-        <v>2317476</v>
+        <v>2317477</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2837,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6473319-AD6E-45F3-A47F-2062EFC9E936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5099FED5-3903-473A-B40A-F9A14223DB38}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3588,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341C5753-9E17-4774-88F5-D39E2C684C7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459C76BC-032E-43FE-B451-77186EE32689}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3709,46 +3709,46 @@
         <v>55</v>
       </c>
       <c r="D4" s="7">
-        <v>49488</v>
+        <v>48689</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>70</v>
       </c>
       <c r="I4" s="7">
-        <v>44333</v>
+        <v>40538</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>125</v>
       </c>
       <c r="N4" s="7">
-        <v>93821</v>
+        <v>89227</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3760,46 +3760,46 @@
         <v>107</v>
       </c>
       <c r="D5" s="7">
-        <v>97631</v>
+        <v>92482</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>64</v>
       </c>
       <c r="I5" s="7">
-        <v>41347</v>
+        <v>37656</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>171</v>
       </c>
       <c r="N5" s="7">
-        <v>138978</v>
+        <v>130138</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,7 +3811,7 @@
         <v>162</v>
       </c>
       <c r="D6" s="7">
-        <v>147119</v>
+        <v>141171</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3826,7 +3826,7 @@
         <v>134</v>
       </c>
       <c r="I6" s="7">
-        <v>85680</v>
+        <v>78194</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3841,7 +3841,7 @@
         <v>296</v>
       </c>
       <c r="N6" s="7">
-        <v>232799</v>
+        <v>219365</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3864,46 +3864,46 @@
         <v>195</v>
       </c>
       <c r="D7" s="7">
-        <v>197699</v>
+        <v>193495</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>283</v>
       </c>
       <c r="I7" s="7">
-        <v>214194</v>
+        <v>199765</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>478</v>
       </c>
       <c r="N7" s="7">
-        <v>411894</v>
+        <v>393261</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,46 +3915,46 @@
         <v>345</v>
       </c>
       <c r="D8" s="7">
-        <v>399361</v>
+        <v>388080</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H8" s="7">
         <v>369</v>
       </c>
       <c r="I8" s="7">
-        <v>284580</v>
+        <v>260480</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>714</v>
       </c>
       <c r="N8" s="7">
-        <v>683941</v>
+        <v>648559</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3966,7 @@
         <v>540</v>
       </c>
       <c r="D9" s="7">
-        <v>597060</v>
+        <v>581575</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3981,7 +3981,7 @@
         <v>652</v>
       </c>
       <c r="I9" s="7">
-        <v>498774</v>
+        <v>460245</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3996,7 +3996,7 @@
         <v>1192</v>
       </c>
       <c r="N9" s="7">
-        <v>1095835</v>
+        <v>1041820</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4019,22 +4019,22 @@
         <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>45858</v>
+        <v>48489</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>111</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="H10" s="7">
         <v>65</v>
       </c>
       <c r="I10" s="7">
-        <v>43961</v>
+        <v>40770</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>266</v>
@@ -4049,7 +4049,7 @@
         <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>89819</v>
+        <v>89259</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>269</v>
@@ -4058,7 +4058,7 @@
         <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,46 +4070,46 @@
         <v>60</v>
       </c>
       <c r="D11" s="7">
-        <v>58180</v>
+        <v>54953</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>121</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>91</v>
       </c>
       <c r="I11" s="7">
-        <v>71040</v>
+        <v>65974</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>151</v>
       </c>
       <c r="N11" s="7">
-        <v>129220</v>
+        <v>120927</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4121,7 @@
         <v>104</v>
       </c>
       <c r="D12" s="7">
-        <v>104038</v>
+        <v>103442</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4136,7 +4136,7 @@
         <v>156</v>
       </c>
       <c r="I12" s="7">
-        <v>115001</v>
+        <v>106744</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4151,7 +4151,7 @@
         <v>260</v>
       </c>
       <c r="N12" s="7">
-        <v>219039</v>
+        <v>210186</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4174,46 +4174,46 @@
         <v>294</v>
       </c>
       <c r="D13" s="7">
-        <v>293045</v>
+        <v>290674</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>58</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>418</v>
       </c>
       <c r="I13" s="7">
-        <v>302489</v>
+        <v>281073</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>712</v>
       </c>
       <c r="N13" s="7">
-        <v>595533</v>
+        <v>571747</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,37 +4225,37 @@
         <v>512</v>
       </c>
       <c r="D14" s="7">
-        <v>555173</v>
+        <v>535514</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
       </c>
       <c r="I14" s="7">
-        <v>396966</v>
+        <v>364111</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>1036</v>
       </c>
       <c r="N14" s="7">
-        <v>952139</v>
+        <v>899624</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>292</v>
@@ -4276,7 +4276,7 @@
         <v>806</v>
       </c>
       <c r="D15" s="7">
-        <v>848218</v>
+        <v>826188</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4291,7 +4291,7 @@
         <v>942</v>
       </c>
       <c r="I15" s="7">
-        <v>699455</v>
+        <v>645184</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4306,7 +4306,7 @@
         <v>1748</v>
       </c>
       <c r="N15" s="7">
-        <v>1547672</v>
+        <v>1471371</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
